--- a/LCD/tables/production_generation.xlsx
+++ b/LCD/tables/production_generation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431EBEE7-1008-4CEC-BF75-05A610B73D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E568A9-AC01-4388-8D51-63FF1085E4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cast" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="196">
   <si>
     <t>aluminium production, primary, ingot</t>
   </si>
@@ -601,6 +601,21 @@
   </si>
   <si>
     <t>metal working, average for steel product manufacturing</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>market for polyethylene, high density, granulate</t>
+  </si>
+  <si>
+    <t>polyethylene, high density, granulate</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, for recycling, unsorted, sorting</t>
+  </si>
+  <si>
+    <t>waste polyethylene, for recycling, sorted</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D113A64-FFAF-44FE-AC86-FA8B81CF0F8C}">
   <dimension ref="A1:CG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6047,15 +6062,220 @@
       </c>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="F25" s="18"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="14"/>
-      <c r="BZ25"/>
+      <c r="A25" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK25" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="4"/>
+      <c r="AR25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK25" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>187</v>
+      </c>
+      <c r="CC25" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG25" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
@@ -6072,6 +6292,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6079,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EBDD05-96B1-4047-BBE4-F358E7E60031}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView topLeftCell="BN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE38" sqref="AE38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9232,8 +9453,12 @@
       <c r="CA24" s="14"/>
     </row>
     <row r="25" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -10205,7 +10430,7 @@
   <dimension ref="A1:CG36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13370,8 +13595,12 @@
       <c r="CA24" s="14"/>
     </row>
     <row r="25" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14341,8 +14570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18020,80 +18249,225 @@
       </c>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="14"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="14"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="18"/>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="18"/>
+      <c r="A25" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N25" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE25" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK25" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
       <c r="AV25" s="18"/>
       <c r="AW25" s="14"/>
       <c r="AX25" s="18"/>
-      <c r="AY25" s="18"/>
-      <c r="AZ25" s="18"/>
-      <c r="BA25" s="18"/>
-      <c r="BB25" s="18"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
       <c r="BC25" s="14"/>
-      <c r="BD25" s="18"/>
-      <c r="BE25" s="18"/>
-      <c r="BF25" s="18"/>
-      <c r="BG25" s="18"/>
-      <c r="BH25" s="18"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="18"/>
-      <c r="BK25" s="18"/>
-      <c r="BL25" s="18"/>
-      <c r="BM25" s="18"/>
-      <c r="BN25" s="18"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="18"/>
-      <c r="BQ25" s="18"/>
-      <c r="BR25" s="18"/>
-      <c r="BS25" s="18"/>
-      <c r="BT25" s="18"/>
-      <c r="BU25" s="14"/>
-      <c r="BZ25"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="21"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="21"/>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="24"/>
+      <c r="BJ25" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>187</v>
+      </c>
+      <c r="CC25" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG25" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>

--- a/LCD/tables/production_generation.xlsx
+++ b/LCD/tables/production_generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E568A9-AC01-4388-8D51-63FF1085E4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85892533-CBE8-4B22-B761-36933C0BA66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cast" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="196">
   <si>
     <t>aluminium production, primary, ingot</t>
   </si>
@@ -706,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -739,6 +739,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1021,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D113A64-FFAF-44FE-AC86-FA8B81CF0F8C}">
   <dimension ref="A1:CG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14570,8 +14571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BS9" sqref="BS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16326,80 +16327,246 @@
       <c r="A12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12"/>
-      <c r="F12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="Q12"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="14"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="30"/>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK12" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW12" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
       <c r="BB12" s="21"/>
       <c r="BC12" s="14"/>
-      <c r="BD12"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12"/>
-      <c r="BH12" s="12"/>
-      <c r="BJ12"/>
-      <c r="BK12"/>
-      <c r="BM12"/>
-      <c r="BN12" s="18"/>
-      <c r="BO12" s="14"/>
-      <c r="BP12"/>
-      <c r="BQ12"/>
-      <c r="BR12"/>
-      <c r="BS12"/>
-      <c r="BT12" s="18"/>
-      <c r="BU12" s="14"/>
-      <c r="BV12"/>
-      <c r="BW12"/>
-      <c r="BX12"/>
-      <c r="BY12"/>
-      <c r="BZ12" s="18"/>
-      <c r="CA12" s="14"/>
+      <c r="BD12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>187</v>
+      </c>
+      <c r="CC12" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG12" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
